--- a/latest_version/data/SOURCES.xlsx
+++ b/latest_version/data/SOURCES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lennard.welslau\Code\Lennard Github\eu-debt-sustainability-analysis\06_dsa_latest_version\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lennard.welslau\Code\Lennard Github\eu-debt-sustainability-analysis\latest_version\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA1D966-C1AA-4209-A6F5-9E2A4E606772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A9B90D-60D5-46B2-9BD1-B0167B44E67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-96" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="deterministic" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="162">
   <si>
     <t>DEBT_RATIO</t>
   </si>
@@ -414,9 +414,6 @@
     <t>EXR_USA</t>
   </si>
   <si>
-    <t>International Financial Statistics</t>
-  </si>
-  <si>
     <t>Frequency</t>
   </si>
   <si>
@@ -426,58 +423,109 @@
     <t>Quarterly</t>
   </si>
   <si>
-    <t>IMF World Economic Outlook</t>
-  </si>
-  <si>
-    <t>GGXONLB_NGDP</t>
-  </si>
-  <si>
-    <t>dataset: GOV_10Q_GGNFA, unit: PC_GDP, na_item: B, s_adj: SCA, sector: S13</t>
-  </si>
-  <si>
-    <t>FITB_PA</t>
-  </si>
-  <si>
     <t>OECD</t>
   </si>
   <si>
-    <t>FIMM_PA</t>
-  </si>
-  <si>
-    <t>Annual averages of quarterly series</t>
-  </si>
-  <si>
-    <t>FIGB_PA</t>
-  </si>
-  <si>
-    <t>NGDP_SA_XDC</t>
-  </si>
-  <si>
-    <t>NGDP_XDC</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>https://data.imf.org/?sk=4c514d48-b6ba-49ed-8ab9-52b0c1a0179b&amp;sId=-1</t>
-  </si>
-  <si>
-    <t>OECD.SDD.STES,DSD_KEI@DF_KEI,4.0</t>
-  </si>
-  <si>
-    <t>https://data.oecd.org/</t>
-  </si>
-  <si>
-    <t>https://ec.europa.eu/eurostat/databrowser/view/ERT_BIL_EUR_Q/default/table?lang=en&amp;category=ert.ert_bil.ert_bil_eur</t>
-  </si>
-  <si>
     <t>For non-euro currencies USD exchange rates are calculated using the EUR-local currency and the EUR-USD exchange rates</t>
   </si>
   <si>
-    <t>https://www.imf.org/en/Publications/WEO/weo-database/2024/April/download-entire-database</t>
-  </si>
-  <si>
     <t>https://ec.europa.eu/eurostat/databrowser/view/GOV_10Q_GGNFA/default/table?lang=en</t>
+  </si>
+  <si>
+    <t>AVG-NAC in database
+ERT-BIL-EUR-Q</t>
+  </si>
+  <si>
+    <t>AVG-NAC in database
+ERT-BIL-EUR-A</t>
+  </si>
+  <si>
+    <t>dataset: NAMQ10_GDP, unit: CP_MNAC, na_item: B1GQ, s_adj: SCA</t>
+  </si>
+  <si>
+    <t>dataset: NAMA10_GDP, unit: CP_MNAC, na_item: B1GQ</t>
+  </si>
+  <si>
+    <t>dataset: irt_st_q, int_rt: IRT_M3</t>
+  </si>
+  <si>
+    <t>dataset: irt_st_a, int_rt: IRT_M3</t>
+  </si>
+  <si>
+    <t>dataset: OECD.SDD.STES,DSD_STES@DF_FINMARK,4.0, measure: IR3TIB</t>
+  </si>
+  <si>
+    <t>Annual average of quarterly series</t>
+  </si>
+  <si>
+    <t>Bulgaria only</t>
+  </si>
+  <si>
+    <t>dataset: irt_lt_mcby_q, int_rt: MCBY</t>
+  </si>
+  <si>
+    <t>dataset: irt_lt_mcby_a, int_rt: MCBY</t>
+  </si>
+  <si>
+    <t>series: MIR.M.EE.B.A2C.I.R.A.2
+250.EUR.N</t>
+  </si>
+  <si>
+    <t>Estonia only</t>
+  </si>
+  <si>
+    <t>ECB</t>
+  </si>
+  <si>
+    <t>Primary balance is calculated as sum of Net lending/borrowing and Interest payable</t>
+  </si>
+  <si>
+    <t>Net lending/borrowing, dataset: GOV_10DD_EDPT1,  unit: PC_GDP, na_item: B9, s_adj: SCA, sector: S13</t>
+  </si>
+  <si>
+    <t>Net lending/borrowing, dataset: GOV_10Q_GGNFA,  unit: PC_GDP, na_item: D41PAY, sector: S13</t>
+  </si>
+  <si>
+    <t>Interest payable, dataset: GOV_10DD_EDPT1, unit: PC_GDP, na_item: D41PAY, s_adj: NSA, sector: S13</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/ert_bil_eur_q/default/table?lang=en&amp;category=ert.ert_bil.ert_bil_eur</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/ert_bil_eur_a/default/table?lang=en&amp;category=ert.ert_bil.ert_bil_eur</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/product/view/namq_10_gdp</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/nama_10_gdp/default/table?lang=en</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/gov_10dd_edpt1__custom_11776663/default/table?lang=en</t>
+  </si>
+  <si>
+    <t>Interest payable, dataset: GOV_10Q_GGNFA, unit: PC_GDP, na_item: D41PAY, sector: S13</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/irt_st_q__custom_11769701/default/table?lang=en</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/irt_st_a/default/table?lang=en&amp;category=irt.irt_st</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/IRT_LT_MCBY_Q__custom_3012440/default/table?lang=en</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/irt_lt_mcby_a/default/table?lang=en</t>
+  </si>
+  <si>
+    <t>https://data.ecb.europa.eu/data/datasets/MIR/MIR.M.EE.B.A2C.I.R.A.2250.EUR.N</t>
+  </si>
+  <si>
+    <t>https://data-explorer.oecd.org/vis?lc=en&amp;pg=0&amp;fs[0]=Topic%2C1%7CEconomy%23ECO%23%7CShort-term%20economic%20statistics%23ECO_STS%23&amp;fc=Topic&amp;bp=true&amp;snb=21&amp;vw=tb&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_STES%40DF_FINMARK&amp;df[ag]=OECD.SDD.STES&amp;df[vs]=4.0&amp;pd=%2C&amp;dq=AUS.M.IR3TIB.PA.....&amp;ly[cl]=TIME_PERIOD&amp;to[TIME_PERIOD]=false</t>
   </si>
 </sst>
 </file>
@@ -522,7 +570,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -615,13 +663,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -632,26 +691,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -936,42 +1014,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A41" sqref="A1:XFD41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="34.140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="5" width="34.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>120</v>
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -980,96 +1059,96 @@
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1078,7 +1157,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>122</v>
       </c>
@@ -1094,61 +1173,61 @@
       <c r="E11" s="2"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -1161,10 +1240,10 @@
       <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>72</v>
       </c>
@@ -1180,7 +1259,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>73</v>
       </c>
@@ -1196,7 +1275,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1214,7 +1293,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>74</v>
       </c>
@@ -1230,7 +1309,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
@@ -1246,7 +1325,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -1262,44 +1341,44 @@
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1307,26 +1386,26 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1335,19 +1414,19 @@
       <c r="E27" s="2"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>15</v>
       </c>
@@ -1363,14 +1442,14 @@
       <c r="E29" s="2"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -1381,13 +1460,13 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
         <v>116</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -1395,24 +1474,24 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="2" t="s">
         <v>112</v>
       </c>
@@ -1421,12 +1500,12 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="2" t="s">
         <v>113</v>
       </c>
@@ -1435,12 +1514,12 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
         <v>114</v>
       </c>
@@ -1449,7 +1528,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>117</v>
       </c>
@@ -1463,11 +1542,11 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C37" s="2"/>
@@ -1477,11 +1556,11 @@
       <c r="E37" s="2"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="4"/>
+      <c r="B38" s="5"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
         <v>103</v>
@@ -1489,11 +1568,11 @@
       <c r="E38" s="2"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="4"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
         <v>104</v>
@@ -1501,7 +1580,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>93</v>
       </c>
@@ -1517,7 +1596,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>95</v>
       </c>
@@ -1532,18 +1611,26 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D44"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D45"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D46"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="C2:C10"/>
@@ -1556,14 +1643,6 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E16"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{0D79B454-4559-40BF-BC4C-EB29C4CC04E1}"/>
@@ -1590,268 +1669,357 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B460118-B168-47AC-8699-48DABBF10B49}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="69.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="69.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>128</v>
+      <c r="B2" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="D2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="D4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="7" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="D18" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F2:F3"/>
+  <mergeCells count="23">
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{6D0C4229-9A72-42FB-BDC8-05981FBE6E52}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{5CD8D911-8BC5-4F6F-8754-46A1D8B4DC4B}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{E94646DF-82E7-476D-90CA-527E085B3636}"/>
-    <hyperlink ref="D9" r:id="rId4" xr:uid="{21C70642-0535-41B0-92B1-58F80FD02340}"/>
-    <hyperlink ref="D12" r:id="rId5" xr:uid="{F0A2B965-4319-4E72-BAE4-4BC5A067DC41}"/>
-    <hyperlink ref="D13" r:id="rId6" xr:uid="{F564A3BC-90B1-474C-856D-78FC97FC0C51}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{1976B44B-3AE6-4572-8D8B-2CC7B0AF8F7D}"/>
-    <hyperlink ref="D2" r:id="rId8" xr:uid="{712ACEC1-A7FB-4630-AB5A-BAFA88418FDD}"/>
-    <hyperlink ref="D3" r:id="rId9" xr:uid="{5496E1FF-E2BF-4D5F-99BE-789897355F4C}"/>
-    <hyperlink ref="D7" r:id="rId10" xr:uid="{523F4100-E98C-4716-8CD1-9727845E8FBF}"/>
-    <hyperlink ref="D6" r:id="rId11" xr:uid="{40890AC4-2E07-4FB9-BAEC-18F8D12254DF}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{58A7C572-D774-4DE1-8C96-A66802CE6CD0}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{6683C9D1-3943-42B9-A288-50211A525372}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{0641A2D0-B8AC-458D-87AC-224FE6FB1433}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{BAC8D0B1-962D-4E45-B0D2-B31147C332E1}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{13FCEB4F-CCBB-498E-A2F5-5E01CE6DDEDD}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{673DF5EB-6F7E-4BAF-9C6E-C24D8B8F9D64}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{5EDB1F4C-E943-4887-B8C3-6CD60A550B8D}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{C0CBB5BF-A8BE-40C9-863D-B5BE0C03306E}"/>
+    <hyperlink ref="D18" r:id="rId9" xr:uid="{5AF1BBA9-46B7-49D6-8A72-F7B764E89350}"/>
+    <hyperlink ref="D14" r:id="rId10" display="https://data-explorer.oecd.org/vis?lc=en&amp;pg=0&amp;fs[0]=Topic%2C1%7CEconomy%23ECO%23%7CShort-term%20economic%20statistics%23ECO_STS%23&amp;fc=Topic&amp;bp=true&amp;snb=21&amp;vw=tb&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_STES%40DF_FINMARK&amp;df[ag]=OECD.SDD.STES&amp;df[vs]=4.0&amp;pd=%2C&amp;dq=AUS.M.IR3TIB.PA.....&amp;ly[cl]=TIME_PERIOD&amp;to[TIME_PERIOD]=false" xr:uid="{7E7B27D1-8448-446C-ACF6-6123D6F8EA3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/latest_version/data/SOURCES.xlsx
+++ b/latest_version/data/SOURCES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lennard.welslau\Code\Lennard Github\eu-debt-sustainability-analysis\latest_version\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A9B90D-60D5-46B2-9BD1-B0167B44E67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF469E0-B03C-4922-BF26-5B3BA64A5FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="deterministic" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="167">
   <si>
     <t>DEBT_RATIO</t>
   </si>
@@ -526,6 +526,21 @@
   </si>
   <si>
     <t>https://data-explorer.oecd.org/vis?lc=en&amp;pg=0&amp;fs[0]=Topic%2C1%7CEconomy%23ECO%23%7CShort-term%20economic%20statistics%23ECO_STS%23&amp;fc=Topic&amp;bp=true&amp;snb=21&amp;vw=tb&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_STES%40DF_FINMARK&amp;df[ag]=OECD.SDD.STES&amp;df[vs]=4.0&amp;pd=%2C&amp;dq=AUS.M.IR3TIB.PA.....&amp;ly[cl]=TIME_PERIOD&amp;to[TIME_PERIOD]=false</t>
+  </si>
+  <si>
+    <t>TAX_AND_PROPERTY_INCOME</t>
+  </si>
+  <si>
+    <t>Relative changes in pension tax revenues and property income to 2024 as percent of GDP. Commission Data from 2024-2034 linearly extrapolated to 2070</t>
+  </si>
+  <si>
+    <t>https://economy-finance.ec.europa.eu/publications/debt-sustainability-monitor-2023_en</t>
+  </si>
+  <si>
+    <t>EU Debt Sustainability Monitor 2023</t>
+  </si>
+  <si>
+    <t>Annex 8 Country fiches tables and graphs</t>
   </si>
 </sst>
 </file>
@@ -694,19 +709,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -716,18 +743,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1012,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A41" sqref="A1:XFD41"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="67" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1047,10 +1062,10 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1063,8 +1078,8 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1075,8 +1090,8 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1087,8 +1102,8 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1099,8 +1114,8 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1111,8 +1126,8 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1123,8 +1138,8 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1135,8 +1150,8 @@
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1147,8 +1162,8 @@
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1177,13 +1192,13 @@
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="2"/>
@@ -1193,9 +1208,9 @@
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
     </row>
@@ -1203,16 +1218,16 @@
       <c r="A14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="1"/>
@@ -1221,10 +1236,10 @@
       <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -1240,7 +1255,7 @@
       <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -1293,349 +1308,359 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>71</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="2" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="D26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>68</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C31" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="2" t="s">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="2" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="2" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="2"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="B39" s="7"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>100</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D44"/>
-    </row>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D45"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D46"/>
     </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D47"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="C2:C10"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
@@ -1643,25 +1668,34 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E16"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{0D79B454-4559-40BF-BC4C-EB29C4CC04E1}"/>
-    <hyperlink ref="C29" r:id="rId2" xr:uid="{5DE8E544-060B-4E7D-8D6A-82D7EBC96D88}"/>
-    <hyperlink ref="C22" r:id="rId3" xr:uid="{75DCD5A8-9D32-4461-B295-A6C082AC33BD}"/>
+    <hyperlink ref="C30" r:id="rId2" xr:uid="{5DE8E544-060B-4E7D-8D6A-82D7EBC96D88}"/>
+    <hyperlink ref="C23" r:id="rId3" xr:uid="{75DCD5A8-9D32-4461-B295-A6C082AC33BD}"/>
     <hyperlink ref="C19" r:id="rId4" xr:uid="{8DAB7230-0FD2-43A8-9AFC-699CE8A9FA74}"/>
     <hyperlink ref="C16" r:id="rId5" xr:uid="{115B436C-BAF6-4839-8A61-583F8F65FB01}"/>
     <hyperlink ref="C14" r:id="rId6" xr:uid="{39CB3A6A-EECA-4168-8428-1435DE63A552}"/>
     <hyperlink ref="C12" r:id="rId7" xr:uid="{F0D9C959-F375-4722-96DF-4D548460AF19}"/>
     <hyperlink ref="C17" r:id="rId8" xr:uid="{36D6FFE5-3659-4B50-8147-98EBD35512F2}"/>
     <hyperlink ref="C18" r:id="rId9" xr:uid="{5EE99138-668C-42AD-BB51-64E8B21E1435}"/>
-    <hyperlink ref="C21" r:id="rId10" xr:uid="{EEE721B6-4A63-4475-820D-279FD471190B}"/>
-    <hyperlink ref="C25" r:id="rId11" xr:uid="{70BC0D89-A4CD-41D1-8123-C005238D0485}"/>
-    <hyperlink ref="C27" r:id="rId12" xr:uid="{1573F607-F504-4992-8FBD-24EA0A3F5EC8}"/>
+    <hyperlink ref="C22" r:id="rId10" xr:uid="{EEE721B6-4A63-4475-820D-279FD471190B}"/>
+    <hyperlink ref="C26" r:id="rId11" xr:uid="{70BC0D89-A4CD-41D1-8123-C005238D0485}"/>
+    <hyperlink ref="C28" r:id="rId12" xr:uid="{1573F607-F504-4992-8FBD-24EA0A3F5EC8}"/>
     <hyperlink ref="C11" r:id="rId13" xr:uid="{8B111009-6B3E-49E5-9085-9F852A35CAC2}"/>
-    <hyperlink ref="C20" r:id="rId14" xr:uid="{C931B9A2-3350-455B-98CC-1D9F02674608}"/>
-    <hyperlink ref="C40" r:id="rId15" xr:uid="{27CF2761-839F-4E65-96E9-44162CB9DDE0}"/>
-    <hyperlink ref="C41" r:id="rId16" xr:uid="{7A4756BD-DD40-4CBB-9605-9F73D65DBC93}"/>
-    <hyperlink ref="C30" r:id="rId17" xr:uid="{6D2BE8CC-EFCA-4F99-B173-B12A68BE3DE3}"/>
+    <hyperlink ref="C21" r:id="rId14" xr:uid="{C931B9A2-3350-455B-98CC-1D9F02674608}"/>
+    <hyperlink ref="C41" r:id="rId15" xr:uid="{27CF2761-839F-4E65-96E9-44162CB9DDE0}"/>
+    <hyperlink ref="C42" r:id="rId16" xr:uid="{7A4756BD-DD40-4CBB-9605-9F73D65DBC93}"/>
+    <hyperlink ref="C31" r:id="rId17" xr:uid="{6D2BE8CC-EFCA-4F99-B173-B12A68BE3DE3}"/>
+    <hyperlink ref="C20" r:id="rId18" xr:uid="{CC788889-5E4D-4E64-8625-3E69D8263F45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1671,7 +1705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B460118-B168-47AC-8699-48DABBF10B49}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="C3" zoomScale="76" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1679,7 +1713,7 @@
   <cols>
     <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5546875" customWidth="1"/>
     <col min="5" max="5" width="69.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51.5546875" customWidth="1"/>
@@ -1706,13 +1740,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="11" t="s">
         <v>123</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1721,32 +1755,32 @@
       <c r="E2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="3" t="s">
         <v>151</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="11" t="s">
         <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1755,30 +1789,30 @@
       <c r="E4" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="3" t="s">
         <v>151</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="11" t="s">
         <v>123</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1790,11 +1824,11 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="3" t="s">
         <v>153</v>
       </c>
@@ -1804,67 +1838,67 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="11" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="9" t="s">
         <v>154</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="16"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="11" t="s">
         <v>123</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1876,11 +1910,11 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="3" t="s">
         <v>157</v>
       </c>
@@ -1890,43 +1924,43 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="9" t="s">
         <v>161</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="11" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="11" t="s">
         <v>123</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1938,11 +1972,11 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="3" t="s">
         <v>159</v>
       </c>
@@ -1952,39 +1986,49 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="9" t="s">
         <v>160</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="11" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D14:D15"/>
@@ -1998,16 +2042,6 @@
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{58A7C572-D774-4DE1-8C96-A66802CE6CD0}"/>
